--- a/zulassung.xlsx
+++ b/zulassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91baa31574baa20a/HSBI/3. Semester/Innovations - und Projektmanagement/Projekt Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{9D362DC0-2740-4FD3-9197-17AC54460654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA31287-325C-456E-83A8-2720A4A7B55F}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="8_{9D362DC0-2740-4FD3-9197-17AC54460654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5847A2D9-7B23-4658-8C7D-EF8048A0EAE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="498">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -320,7 +320,10 @@
     <t>Effiziente Lichttechnik</t>
   </si>
   <si>
-    <t>Einführug in das Berufsfeld (Digitale Technologien)</t>
+    <t>Einführung in das Berufsfeld Digitale Logistik</t>
+  </si>
+  <si>
+    <t>Einführung in das Berufsfeld (Digitale Technologien)</t>
   </si>
   <si>
     <t>Einführung in das Berufsfeld (MAT)</t>
@@ -935,6 +938,9 @@
     <t>Projekt Data Science</t>
   </si>
   <si>
+    <t>Projekt Digitale Bahnsysteme</t>
+  </si>
+  <si>
     <t>Projekt Energie und Effizienz</t>
   </si>
   <si>
@@ -1026,6 +1032,9 @@
   </si>
   <si>
     <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Software Gruppenprojekt</t>
   </si>
   <si>
     <t>Softwarelabor</t>
@@ -1535,7 +1544,38 @@
     <t>Auslandsaufenthalt, Gender und Diversity: Erfolgsfaktoren für Unternehmen, Individuelle Profilbildung, International Activities, Praxisphase, Biotechnologische Detektionssysteme, Biotechnologische Produktionsprozesse, Mess- und Prüfsysteme, Modellbildung und Simulation, Motion Control, Predictive Analytics, Projekt Automatisierungstechnik, Vernetzte Systeme mit Mikrocontrollern, Zustandsbeobachtung und -schätzung, Zustandsregelungen</t>
   </si>
   <si>
+    <t>Auslandsaufenthalt, Gender und Diversity: Erfolgsfaktoren für Unternehmen, Individuelle Profilbildung, International Activities, Praxisphase,  Aktuelle Themen der Medizintechnik, Akustische Signalverarbeitung in technischen und biologischen Systemen, Biosignalverarbeitung und Neuroengineering, Biotechnologische Detektionssysteme, Biotechnologische Produktionsprozesse, Cooperative and Wearable Robotics, KI-basierte Medizinische Bildverarbeitung, Medizinische Bildgebungsverfahren, Medizinische Datenverarbeitung, Neuroanatomie/-physiologie und Neurorehabilitation, Projekt Medizintechnik</t>
+  </si>
+  <si>
+    <t>Chemie, Elektrotechnik 1 - Gleichstromlehre, Informatik 1 - Imperative Programmierung, Mathematik 1, Molekularbiologie der Zelle, Technische Mechanik, Biotechnologie 1, Elektrotechnik 2 - Wechselstromlehre, Konstruktion, Mathematik 2, Physikalische und messtechnische Grundlagen, Praktikum Biotechnologie 1, Biotechnologie 2, Chemie 2, Innovations- und Projektmanagement, Praktikum Biotechnologie 2, Projekt Apparative Biotechnologie,  Regelungstechnik, Allgemeine Betriebswirtschaftslehre, Biotechnologie 3, Praktikum Biotechnologie 3, Praxisprojekt Apparative Biotechnologie, Sensor- und Aktorsysteme, Technisches Englisch, Angewandte Biotechnologie, Biotechnologische Detektionssysteme, Produktaufreinigung, Biotechnologische Produktionsprozesse, Integrierte Produktentwicklung,  Wahlmodul, Wahlmodul, Wahlmodul, Wahlmodul</t>
+  </si>
+  <si>
     <t>Auslandsaufenthalt, Gender und Diversity: Erfolgsfaktoren für Unternehmen, Individuelle Profilbildung, International Activities, Praxisphase,</t>
+  </si>
+  <si>
+    <t>Digitale Bahnsysteme</t>
+  </si>
+  <si>
+    <t>Einführung System Bahn, Elektrotechnik, Grundlagen der Informatik, Mathematik 1, Naturwissenschaftliche Grundlagen, Technische Mechanik 1, Fahrzeugtechnik, Mathematik 2, Messtechnik, Objektorientierte Programmierung, Technische Mechanik 2, Technisches Englisch, Betriebswirtschaftslehre, Eisenbahninfrastruktur (Fahrweg Leit- und Sicherungstechnik), Kommunikationstechnik, Numerische Mathematik, Sensorik und Aktorik, Software Engineering, Logistik und Verkehrssysteme, Maschinen- und Systemdynamik, Modellbildung und Simulation, Projekt Digitale Bahnsysteme, Projekt Digitale Bahnsysteme, Signale und Systeme, Software Gruppenprojekt, Grundlagen Maschinelles Lernen, Grundlagen der Bildverarbeitung, Projektmanagement, Regelungstechnik, Zulassung und Recht formelle Randbedingungen Eisenbahnbetrieb</t>
+  </si>
+  <si>
+    <t>Digitale Logistik</t>
+  </si>
+  <si>
+    <t>Praxisintegriert</t>
+  </si>
+  <si>
+    <t>Einführung in das Berufsfeld Digitale Logistik, Grundlagen der Programmierung, Grundlagen der Wirtschaftswissenschaften, Mathematik 1, Technische Grundlagen, Beschaffung Produktion und Logistik, Datenbanken, Materialflusstechnik, Operations Research, Rechnungswesen Investition Finanzierung und Steuern, Geschäftsprozessmodellierung und IT-Systeme, Innovations- und Projektmanagement, Statistik, Technisches Englisch, Verpackungstechnik und Ladungssicherung, Digital Service Engineering und Dienstleistungsmarketing, Lean Production, Logistische IT-Systeme, Qualitätsmanagement, Web-Technologien, Business Intelligence, Data Analytics, Cyberphysische Logistiksysteme, Mikrocontrollerprogrammierung, Personal und Organisation, Transport- Speditions- Zoll- und Außenhandelsrecht, Wahlmodul, Wahlmodul, Wahlmodul, Wahlmodul</t>
+  </si>
+  <si>
+    <t>Digitale Fabrikplanung und Simulation, Identifikationssysteme, Industrial Engineering, Interkulturelle Kommunikation, Produktionsplanung und -steuerung, Supply Chain Management, Transportlogistik, Verteil- und Sortiersysteme</t>
+  </si>
+  <si>
+    <t>Grundlagen der Betriebswirtschaftslehre, Grundlagen der Informatik, Grundlagen von Data Science und Datenschutz, Mathematik 1, Technisches Englisch, Data Mining, Datenbanken, Mathematik 2, Objektorientierte Programmierung, Statistik, Big Data, HMI und Bedienoberflächen, Mathematik 3, Vernetzung und IoT-Lösungen, Algorithmen und Datenstrukturen, Innovations- und Projektmanagement, Maschinelles Lernen, Operations Research, Web-Technologien, Geschäftsprozessmodellierung und IT-Systeme, Software Engineering, Sprach- und Bilderkennung, Assistenzsysteme, Safety und Security, Cluster Computing, Qualitätssicherung für KI-Systeme, Wahlmodul, Wahlmodul, Wahlmodul, Wahlmodul</t>
+  </si>
+  <si>
+    <t>Change Management, Diagnose und Predictive Maintenance, Digitale Geschäftsmodelle und Wertschöpfungsketten, Industrielle Steuerungstechnik, Marketing und Technischer Vertrieb, Sensorik und Aktorik, Smart Services und Devices, Social Media and Natural Language
+Processing</t>
   </si>
 </sst>
 </file>
@@ -2206,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G369"/>
+  <dimension ref="A1:G372"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261"/>
+    <sheetView topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -2693,12 +2733,12 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -3013,12 +3053,12 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -3541,13 +3581,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="15">
-      <c r="A261" s="14" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="262" spans="1:1" ht="15">
+      <c r="A262" s="14" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3596,17 +3636,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="15">
-      <c r="A272" s="14" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="273" spans="1:1" ht="15">
+      <c r="A273" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="15">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>294</v>
       </c>
@@ -3616,7 +3656,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" ht="15">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -3636,7 +3676,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" ht="15">
       <c r="A280" t="s">
         <v>300</v>
       </c>
@@ -3651,8 +3691,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="15">
-      <c r="A283" s="14" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3661,8 +3701,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="285" spans="1:1" ht="15">
+      <c r="A285" s="14" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3841,17 +3881,17 @@
         <v>340</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="15">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="15">
+    <row r="322" spans="1:1">
       <c r="A322" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="15">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>343</v>
       </c>
@@ -4084,6 +4124,21 @@
     <row r="369" spans="1:1" ht="15">
       <c r="A369" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="15">
+      <c r="A370" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="15">
+      <c r="A371" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="15">
+      <c r="A372" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4093,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D21EA3-6A34-4B16-AF2A-5BAE175A5E61}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -4110,19 +4165,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121.5">
@@ -4130,13 +4185,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E2" s="9"/>
     </row>
@@ -4145,16 +4200,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="118.9" customHeight="1">
@@ -4162,16 +4217,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.15" customHeight="1">
@@ -4179,16 +4234,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="121.5">
@@ -4196,16 +4251,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="121.5">
@@ -4213,172 +4268,172 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="106.5">
       <c r="A8" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="121.5">
       <c r="A9" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="121.5">
       <c r="A10" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="121.5">
       <c r="A11" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="121.5" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="152.25">
       <c r="A13" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="137.25">
       <c r="A14" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="137.25">
       <c r="A15" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="152.25">
       <c r="A16" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -4387,16 +4442,16 @@
         <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="183">
@@ -4404,16 +4459,16 @@
         <v>36</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="213">
@@ -4421,16 +4476,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="167.25">
@@ -4438,363 +4493,408 @@
         <v>36</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="121.5">
       <c r="A21" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="121.5">
       <c r="A22" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="121.5">
       <c r="A23" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="152.25">
       <c r="A24" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="121.5">
       <c r="A25" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="106.5">
       <c r="A26" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="106.5">
       <c r="A27" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="121.5">
       <c r="A28" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="121.5">
       <c r="A29" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="106.5">
       <c r="A30" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="121.5">
       <c r="A31" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="106.5">
       <c r="A32" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="106.5">
       <c r="A33" s="6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="106.5">
       <c r="A34" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="121.5">
       <c r="A35" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="121.5">
       <c r="A36" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C36" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="121.5">
       <c r="A37" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C37" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="137.25">
       <c r="A38" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="121.5">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="121.5">
+      <c r="A40" t="s">
         <v>482</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30.75">
-      <c r="A40" t="s">
-        <v>479</v>
-      </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C40" t="s">
-        <v>430</v>
+        <v>433</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30.75">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="121.5">
       <c r="A41" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C41" t="s">
-        <v>479</v>
+        <v>482</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>484</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="121.5">
+      <c r="A42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="121.5">
+      <c r="A43" t="s">
+        <v>492</v>
+      </c>
+      <c r="B43" t="s">
+        <v>493</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="106.5">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>493</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/zulassung.xlsx
+++ b/zulassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91baa31574baa20a/HSBI/3. Semester/Innovations - und Projektmanagement/Projekt Chatbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhbi-my.sharepoint.com/personal/steven_michel_fhbi_onmicrosoft_com/Documents/B.Eng/7. Semester/2. Innovations-&amp; Projektmanagement/Projektarbeit/HSBI_Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="8_{9D362DC0-2740-4FD3-9197-17AC54460654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5847A2D9-7B23-4658-8C7D-EF8048A0EAE4}"/>
+  <xr:revisionPtr revIDLastSave="798" documentId="8_{9D362DC0-2740-4FD3-9197-17AC54460654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6215F13A-9041-4F60-8953-24651B95754A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="499">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Betriebswirtschaft</t>
   </si>
   <si>
-    <t xml:space="preserve">Modulbezeichnung </t>
-  </si>
-  <si>
     <t>Naturwissenschaft</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Akustische Signalverarbeitung in technischen und biologischen Systemen</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Algorithmen und Datenstrukturen</t>
@@ -1380,9 +1380,6 @@
   <si>
     <t xml:space="preserve">Aktuelle Themen der Medizintechnik, Ambient Assisted Living, Auslandsaufenthalt, Cooperative and Wearable Robotics, Electronic Marketing, Elektrotechnik 3, Gender und Diversity: Erfolgsfaktoren für Unternehmen, Grundlagen Data Science, Grundlagen der Kryptographie, Integrierte Produktentwicklung, International Activities, Internationales Marketing, Internes Rechnungswesen, Investition und Finanzierung, KI-basierte Medizinische Bildverarbeitung, Künstliche Neuronale Netze, Maschinelles Lernen, Medizinische Bildgebungsverfahren, Medizinische Datenverarbeitung, Messtechnik, Mikrosystemtechnik, Motion Control, Natural Language Processing, Optoelektronik, Personal und Organisation, Qualitätsmanagement, Robotik - Einführung und Grundlagen, Sensor- und Aktorsysteme, Sensorik, Signale und Systeme, Stochastik, Technisches Englisch 2, Theoretische Informatik, Vernetzte Systeme mit Mikrocontrollern, Web-Technologien 1, Web-Technologien 2, Diskrete Mathematik, Grundlagen der Kryptographie, Predictive Analytics, Stochastik
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektotechnik </t>
   </si>
   <si>
     <t>Elektrotechnik 1, Informatik 1, Ingenieurmathematik 1, Physik 1, Werkstoffe der Elektrotechnik und
@@ -1577,12 +1574,18 @@
     <t>Change Management, Diagnose und Predictive Maintenance, Digitale Geschäftsmodelle und Wertschöpfungsketten, Industrielle Steuerungstechnik, Marketing und Technischer Vertrieb, Sensorik und Aktorik, Smart Services und Devices, Social Media and Natural Language
 Processing</t>
   </si>
+  <si>
+    <t>Modulbezeichnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrotechnik </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,12 +1646,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1679,7 +1688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1705,9 +1714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1717,6 +1723,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2027,12 +2037,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2066,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2087,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2085,7 +2095,7 @@
     <col min="4" max="4" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2246,13 +2256,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G372"/>
+  <dimension ref="A1:R372"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2261,11 +2271,17 @@
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>497</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2274,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -2286,1857 +2302,2187 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="G80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="G101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="G118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="15">
-      <c r="A262" s="14" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="15">
-      <c r="A273" s="14" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="15">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="15">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="15">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="15">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="15">
-      <c r="A285" s="14" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="15">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="15">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="15">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="15">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="15">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="15">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="15">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="15">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="15">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="15">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="15">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="15">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="15">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="15">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="15">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="15">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="15">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="15">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="15">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="15">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="15">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="15">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="15">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="15">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="15">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="15">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="15">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="15">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="15">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="15">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="15">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="15">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="15">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="15">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="15">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="15">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="15">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="15">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="15">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="15">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="15">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="15">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="15">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="15">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="15">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="15">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="15">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="15">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="15">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -4150,11 +4496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D21EA3-6A34-4B16-AF2A-5BAE175A5E61}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -4163,7 +4509,7 @@
     <col min="6" max="6" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>393</v>
       </c>
@@ -4180,7 +4526,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="121.5">
+    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -4195,7 +4541,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="114" customHeight="1">
+    <row r="3" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -4212,7 +4558,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="118.9" customHeight="1">
+    <row r="4" spans="1:6" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -4229,7 +4575,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="115.15" customHeight="1">
+    <row r="5" spans="1:6" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -4246,7 +4592,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="121.5">
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -4263,7 +4609,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="121.5">
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -4280,7 +4626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="106.5">
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>329</v>
       </c>
@@ -4297,7 +4643,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="121.5">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>417</v>
       </c>
@@ -4314,7 +4660,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.5">
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>417</v>
       </c>
@@ -4332,7 +4678,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="121.5">
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>423</v>
       </c>
@@ -4350,7 +4696,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="121.5" customHeight="1">
+    <row r="12" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>426</v>
       </c>
@@ -4368,7 +4714,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="152.25">
+    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>426</v>
       </c>
@@ -4381,11 +4727,11 @@
       <c r="D13" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="137.25">
+    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>426</v>
       </c>
@@ -4395,14 +4741,14 @@
       <c r="C14" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="137.25">
+    <row r="15" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>426</v>
       </c>
@@ -4412,14 +4758,14 @@
       <c r="C15" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="152.25">
+    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>426</v>
       </c>
@@ -4429,22 +4775,22 @@
       <c r="C16" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>439</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="198">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4454,14 +4800,14 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="183">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>427</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -4471,14 +4817,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="213">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>433</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -4488,14 +4834,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="167.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -4505,26 +4851,26 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="121.5">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="121.5">
+    </row>
+    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>403</v>
@@ -4533,15 +4879,15 @@
         <v>433</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="121.5">
+    </row>
+    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>403</v>
@@ -4550,15 +4896,15 @@
         <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="152.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>403</v>
@@ -4567,15 +4913,15 @@
         <v>430</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="121.5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>403</v>
@@ -4584,62 +4930,62 @@
         <v>404</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="106.5">
+    </row>
+    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>398</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="106.5">
+    <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>398</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="121.5">
-      <c r="A28" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="121.5">
-      <c r="A29" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>403</v>
@@ -4648,66 +4994,66 @@
         <v>410</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="106.5">
+    </row>
+    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="121.5">
+    </row>
+    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="106.5">
+    </row>
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>403</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="106.5">
+    </row>
+    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>398</v>
@@ -4716,13 +5062,13 @@
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="106.5">
+    </row>
+    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>426</v>
       </c>
@@ -4733,15 +5079,15 @@
         <v>426</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E34" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="121.5">
-      <c r="A35" t="s">
-        <v>477</v>
       </c>
       <c r="B35" t="s">
         <v>403</v>
@@ -4750,15 +5096,15 @@
         <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="121.5">
+    </row>
+    <row r="36" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B36" t="s">
         <v>403</v>
@@ -4767,15 +5113,15 @@
         <v>433</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="121.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B37" t="s">
         <v>403</v>
@@ -4784,15 +5130,15 @@
         <v>410</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="137.25">
-      <c r="A38" t="s">
-        <v>482</v>
       </c>
       <c r="B38" t="s">
         <v>403</v>
@@ -4801,15 +5147,15 @@
         <v>407</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="121.5">
+    </row>
+    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" t="s">
         <v>403</v>
@@ -4818,15 +5164,15 @@
         <v>44</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="121.5">
+    </row>
+    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" t="s">
         <v>403</v>
@@ -4835,66 +5181,66 @@
         <v>433</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="121.5">
+        <v>484</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B41" t="s">
         <v>403</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="E41" s="15" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="121.5">
-      <c r="A42" t="s">
-        <v>490</v>
       </c>
       <c r="B42" t="s">
         <v>403</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="121.5">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>492</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="106.5">
+    </row>
+    <row r="44" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5102,13 +5448,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC65CAC6-5AA1-44DA-87CF-42367EE64157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC65CAC6-5AA1-44DA-87CF-42367EE64157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="50a3624f-2342-413a-95f3-6f859866bf5a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44AFCBE-1BC5-408B-AE0A-65E369A63C51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44AFCBE-1BC5-408B-AE0A-65E369A63C51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB9691BF-87DD-491D-B60E-5D5F923428FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB9691BF-87DD-491D-B60E-5D5F923428FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50a3624f-2342-413a-95f3-6f859866bf5a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/zulassung.xlsx
+++ b/zulassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhbi-my.sharepoint.com/personal/steven_michel_fhbi_onmicrosoft_com/Documents/B.Eng/7. Semester/2. Innovations-&amp; Projektmanagement/Projektarbeit/HSBI_Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="798" documentId="8_{9D362DC0-2740-4FD3-9197-17AC54460654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6215F13A-9041-4F60-8953-24651B95754A}"/>
+  <xr:revisionPtr revIDLastSave="1118" documentId="8_{9D362DC0-2740-4FD3-9197-17AC54460654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{598B1F3A-8CAA-455A-8BC8-EC0ACF870374}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="496">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -110,18 +110,21 @@
     <t>Betriebswirtschaft</t>
   </si>
   <si>
+    <t>Modulbezeichnung</t>
+  </si>
+  <si>
     <t>Naturwissenschaft</t>
   </si>
   <si>
     <t>Aktuelle Themen der Medizintechnik</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Akustische Signalverarbeitung in technischen und biologischen Systemen</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Algorithmen und Datenstrukturen</t>
   </si>
   <si>
@@ -879,15 +882,6 @@
   </si>
   <si>
     <t>Planung und Controlling</t>
-  </si>
-  <si>
-    <t>Praktikum Biotechnologie 1</t>
-  </si>
-  <si>
-    <t>Praktikum Biotechnologie 3</t>
-  </si>
-  <si>
-    <t>Praktikum Biotechnologie 2</t>
   </si>
   <si>
     <t>Praxisprojekt Apparative Biotechnologie</t>
@@ -1380,6 +1374,9 @@
   <si>
     <t xml:space="preserve">Aktuelle Themen der Medizintechnik, Ambient Assisted Living, Auslandsaufenthalt, Cooperative and Wearable Robotics, Electronic Marketing, Elektrotechnik 3, Gender und Diversity: Erfolgsfaktoren für Unternehmen, Grundlagen Data Science, Grundlagen der Kryptographie, Integrierte Produktentwicklung, International Activities, Internationales Marketing, Internes Rechnungswesen, Investition und Finanzierung, KI-basierte Medizinische Bildverarbeitung, Künstliche Neuronale Netze, Maschinelles Lernen, Medizinische Bildgebungsverfahren, Medizinische Datenverarbeitung, Messtechnik, Mikrosystemtechnik, Motion Control, Natural Language Processing, Optoelektronik, Personal und Organisation, Qualitätsmanagement, Robotik - Einführung und Grundlagen, Sensor- und Aktorsysteme, Sensorik, Signale und Systeme, Stochastik, Technisches Englisch 2, Theoretische Informatik, Vernetzte Systeme mit Mikrocontrollern, Web-Technologien 1, Web-Technologien 2, Diskrete Mathematik, Grundlagen der Kryptographie, Predictive Analytics, Stochastik
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrotechnik </t>
   </si>
   <si>
     <t>Elektrotechnik 1, Informatik 1, Ingenieurmathematik 1, Physik 1, Werkstoffe der Elektrotechnik und
@@ -1574,18 +1571,12 @@
     <t>Change Management, Diagnose und Predictive Maintenance, Digitale Geschäftsmodelle und Wertschöpfungsketten, Industrielle Steuerungstechnik, Marketing und Technischer Vertrieb, Sensorik und Aktorik, Smart Services und Devices, Social Media and Natural Language
 Processing</t>
   </si>
-  <si>
-    <t>Modulbezeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrotechnik </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1635,14 +1626,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1688,7 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1720,14 +1711,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2037,12 +2029,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2058,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2087,7 +2079,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2095,7 +2087,7 @@
     <col min="4" max="4" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2137,7 +2129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +2143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2179,7 +2171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2193,7 +2185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2207,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2221,7 +2213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2235,7 +2227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2256,13 +2248,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R372"/>
+  <dimension ref="A1:R369"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2279,9 +2272,9 @@
     <col min="18" max="18" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2290,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -2302,697 +2295,700 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
+      <c r="A27" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
+      <c r="A56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
+      <c r="A73" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G78" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G88" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G91" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -3000,1491 +2996,2295 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G94" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G95" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G97" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F98" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E100" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+    <row r="102" spans="1:17">
+      <c r="A102" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+    <row r="103" spans="1:17">
+      <c r="A103" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
+      <c r="A104" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
         <v>25</v>
       </c>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
+      <c r="A110" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G111" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D113" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D114" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G117" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G118" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
+      <c r="A119" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F121" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D122" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F124" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
+      <c r="A125" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="F143" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="F157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="F158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="F159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="165" spans="1:6">
+      <c r="A165" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="166" spans="1:6">
+      <c r="A166" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="167" spans="1:6">
+      <c r="A167" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
+      <c r="A168" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="E171" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="E174" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="F175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="C179" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="E183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="C186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="C187" t="s">
+        <v>25</v>
+      </c>
+      <c r="E187" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="C188" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="G190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="E194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="F195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="E196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="E197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="F198" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="B212" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="C216" t="s">
+        <v>25</v>
+      </c>
+      <c r="F216" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="17" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="C217" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="17" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="C218" t="s">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="17" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="C219" t="s">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="17" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="C220" t="s">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="17" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="C221" t="s">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="17" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C223" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="17" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="C225" t="s">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="17" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="C226" t="s">
+        <v>25</v>
+      </c>
+      <c r="F226" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="17" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C227" t="s">
+        <v>25</v>
+      </c>
+      <c r="G227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+      <c r="F228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G229" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="D230" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="17" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>25</v>
+      </c>
+      <c r="F231" t="s">
+        <v>25</v>
+      </c>
+      <c r="G231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C236" t="s">
+        <v>25</v>
+      </c>
+      <c r="F236" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="D237" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="B238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="B240" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="F243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G245" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="G246" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="G249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="G250" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="D251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="D252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="D253" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="D254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="D255" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="D257" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F260" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="13" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>283</v>
+      </c>
+      <c r="D262" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="C263" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C264" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="C265" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="D267" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="E268" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D270" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="C271" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="13" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>294</v>
+      </c>
+      <c r="E273" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="F274" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="C277" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="C279" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="C280" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B282" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="13" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>306</v>
+      </c>
+      <c r="F285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="F286" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="F287" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="E288" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="G289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="G290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="E291" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="C292" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="C293" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F294" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="G295" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="G296" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="G297" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="E298" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="E299" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="G300" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="F301" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="F302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="F303" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="F304" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="F305" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="F306" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F308" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E309" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F310" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="B311" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="B312" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="C313" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="C314" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="G315" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E317" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="C318" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="C319" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F320" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="G321" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F322" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E323" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="C324" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="C325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="C326" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="C327" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="C328" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="C329" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="C330" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="C331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="C332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="E333" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="E334" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="E335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="C336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F337" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="C338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="D339" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="E340" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E341" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F343" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="C344" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="C345" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="E346" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="G347" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="F348" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="C349" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="C350" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="F351" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="F352" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="E353" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="E354" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="D355" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="F356" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="F357" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="F358" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="G359" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="D360" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="D361" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="D362" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="D363" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F364" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="E366" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E367" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="G368" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>392</v>
+      <c r="G369" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4496,11 +5296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D21EA3-6A34-4B16-AF2A-5BAE175A5E61}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -4509,738 +5309,738 @@
     <col min="6" max="6" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="135">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>400</v>
-      </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="114" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="118.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="118.9" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="115.15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="120">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105">
+      <c r="A8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    <row r="9" spans="1:6" ht="120">
+      <c r="A9" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="120">
+      <c r="A10" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="120">
+      <c r="A11" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="121.5" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="165">
+      <c r="A13" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="135">
+      <c r="A14" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="14" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="150">
+      <c r="A15" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D15" s="14" t="s">
+    <row r="16" spans="1:6" ht="150">
+      <c r="A16" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="210">
+      <c r="A17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E17" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="195">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="210">
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E18" s="3" t="s">
+    <row r="20" spans="1:5" ht="165">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="3" t="s">
+    <row r="21" spans="1:5" ht="135">
+      <c r="A21" s="11" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="B21" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="E21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="120">
+      <c r="A22" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="E22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="120">
+      <c r="A23" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E23" s="7" t="s">
+    <row r="24" spans="1:5" ht="150">
+      <c r="A24" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="135">
+      <c r="A25" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="E25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="120">
+      <c r="A26" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="120">
+      <c r="A27" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="120">
+      <c r="A28" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="120">
+      <c r="A29" s="6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="120">
+      <c r="A30" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="E30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="120">
+      <c r="A31" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="120">
+      <c r="A32" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" ht="105">
       <c r="A33" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="105">
+      <c r="A34" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="E34" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="135">
+      <c r="A35" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B35" t="s">
-        <v>403</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="135">
+      <c r="A36" t="s">
+        <v>475</v>
+      </c>
+      <c r="B36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" ht="135">
+      <c r="A37" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" t="s">
+        <v>401</v>
+      </c>
+      <c r="C37" t="s">
+        <v>408</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B36" t="s">
-        <v>403</v>
-      </c>
-      <c r="C36" t="s">
-        <v>433</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>476</v>
-      </c>
-      <c r="B37" t="s">
-        <v>403</v>
-      </c>
-      <c r="C37" t="s">
-        <v>410</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E37" s="3" t="s">
+    <row r="38" spans="1:5" ht="135">
+      <c r="A38" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" t="s">
+        <v>405</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B38" t="s">
-        <v>403</v>
-      </c>
-      <c r="C38" t="s">
-        <v>407</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="120">
+      <c r="A39" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>481</v>
-      </c>
-      <c r="B39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="E39" s="14" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="120">
+      <c r="A40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>431</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>481</v>
-      </c>
-      <c r="B40" t="s">
-        <v>403</v>
-      </c>
-      <c r="C40" t="s">
-        <v>433</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E40" s="14" t="s">
+    <row r="41" spans="1:5" ht="135">
+      <c r="A41" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C41" t="s">
+        <v>480</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>481</v>
-      </c>
-      <c r="B41" t="s">
-        <v>403</v>
-      </c>
-      <c r="C41" t="s">
-        <v>481</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E41" s="14" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="135">
+      <c r="A42" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B42" t="s">
-        <v>403</v>
-      </c>
-      <c r="D42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="135">
+      <c r="A43" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>491</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" ht="105">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5249,23 +6049,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="50a3624f-2342-413a-95f3-6f859866bf5a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B46BE1F86C2D14EB496D3C1679E0290" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21d0a59f2bb9451e1fe8c1c26106e08b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50a3624f-2342-413a-95f3-6f859866bf5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f5a8afb5de0b4bae4d84a45cae1589b" ns3:_="">
     <xsd:import namespace="50a3624f-2342-413a-95f3-6f859866bf5a"/>
@@ -5447,38 +6230,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="50a3624f-2342-413a-95f3-6f859866bf5a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC65CAC6-5AA1-44DA-87CF-42367EE64157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="50a3624f-2342-413a-95f3-6f859866bf5a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB9691BF-87DD-491D-B60E-5D5F923428FB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44AFCBE-1BC5-408B-AE0A-65E369A63C51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E44AFCBE-1BC5-408B-AE0A-65E369A63C51}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB9691BF-87DD-491D-B60E-5D5F923428FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="50a3624f-2342-413a-95f3-6f859866bf5a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC65CAC6-5AA1-44DA-87CF-42367EE64157}"/>
 </file>